--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value925.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value925.xlsx
@@ -357,7 +357,7 @@
         <v>2.839853883083149</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>0.7808979643993672</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value925.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value925.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.382689389263925</v>
+        <v>0.9159573316574097</v>
       </c>
       <c r="B1">
-        <v>1.804822880477107</v>
+        <v>1.420223236083984</v>
       </c>
       <c r="C1">
-        <v>2.839853883083149</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.402090072631836</v>
       </c>
       <c r="E1">
-        <v>0.7808979643993672</v>
+        <v>1.392821669578552</v>
       </c>
     </row>
   </sheetData>
